--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3291.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3291.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.045882735516357</v>
+        <v>1.037347197532654</v>
       </c>
       <c r="B1">
-        <v>2.536156653180073</v>
+        <v>0.9745578169822693</v>
       </c>
       <c r="C1">
-        <v>3.68728406480408</v>
+        <v>4.213390350341797</v>
       </c>
       <c r="D1">
-        <v>2.805472396859117</v>
+        <v>2.505427837371826</v>
       </c>
       <c r="E1">
-        <v>1.164915040787991</v>
+        <v>1.228139638900757</v>
       </c>
     </row>
   </sheetData>
